--- a/Income/LH_inc.xlsx
+++ b/Income/LH_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.3346</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.291</v>
+        <v>0.2961</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2562</v>
+        <v>0.2618</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2645</v>
+        <v>0.27</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.276</v>
+        <v>0.2815</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2813</v>
@@ -2241,7 +2241,7 @@
         <v>0.0531</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0503</v>
+        <v>0.0502</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.0956</v>
@@ -2489,16 +2489,16 @@
         <v>0.1285</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.077</v>
+        <v>0.1224</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.054</v>
+        <v>0.1033</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0445</v>
+        <v>0.0933</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0421</v>
+        <v>0.0911</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0854</v>
@@ -3505,16 +3505,16 @@
         <v>0.2631</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.2173</v>
+        <v>0.2116</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.1666</v>
+        <v>0.1603</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.1675</v>
+        <v>0.1613</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.1713</v>
+        <v>0.1651</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.1634</v>
@@ -3632,16 +3632,16 @@
         <v>0.1528</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.1097</v>
+        <v>0.1552</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.0902</v>
+        <v>0.1395</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.0791</v>
+        <v>0.128</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.0761</v>
+        <v>0.125</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1195</v>
